--- a/extra_izv.xlsx
+++ b/extra_izv.xlsx
@@ -5,7 +5,7 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="svod - Количество переданных в " sheetId="1" r:id="rId4"/>
+    <sheet name="svod" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -32,7 +32,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -44,9 +44,14 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -55,7 +60,7 @@
       <name val="Helvetica Neue Medium"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -64,7 +69,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -74,8 +79,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -85,47 +96,37 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -136,10 +137,25 @@
         <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
         <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -151,7 +167,48 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -166,7 +223,7 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -178,7 +235,7 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -190,7 +247,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="11"/>
@@ -218,54 +275,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -284,9 +366,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffc8c8c8"/>
       <rgbColor rgb="fffefffe"/>
       <rgbColor rgb="ff00a2ff"/>
-      <rgbColor rgb="ffc8c8c8"/>
       <rgbColor rgb="ff89847f"/>
       <rgbColor rgb="fff7f7f6"/>
     </indexedColors>
@@ -305,10 +389,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -485,11 +569,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -498,7 +585,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -513,19 +600,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -773,12 +860,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1069,7 +1156,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1347,1578 +1434,1771 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:D194"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.8125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.6562" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="56.8516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" ht="20.45" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
+      <c r="C2" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" t="s" s="7">
         <v>3</v>
       </c>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" ht="20.45" customHeight="1">
-      <c r="A3" s="6">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" ht="20.2" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" ht="20.2" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" ht="20.2" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="12">
         <v>4</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" ht="20.2" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="12">
         <v>5</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" ht="20.2" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="12">
         <v>6</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" ht="20.2" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="12">
         <v>7</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" ht="20.2" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="12">
         <v>8</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" ht="20.2" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="12">
         <v>9</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" ht="20.2" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="12">
         <v>10</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" ht="20.2" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="12">
         <v>11</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" ht="20.2" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="12">
         <v>12</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" ht="20.2" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="12">
         <v>13</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" ht="20.2" customHeight="1">
-      <c r="A16" s="9">
+      <c r="A16" s="12">
         <v>14</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" ht="20.2" customHeight="1">
-      <c r="A17" s="9">
+      <c r="A17" s="12">
         <v>15</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" ht="20.2" customHeight="1">
-      <c r="A18" s="9">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" ht="20.2" customHeight="1">
-      <c r="A19" s="9">
+      <c r="A19" s="12">
         <v>17</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" ht="20.2" customHeight="1">
-      <c r="A20" s="9">
+      <c r="A20" s="12">
         <v>18</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" ht="20.2" customHeight="1">
-      <c r="A21" s="9">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" ht="20.2" customHeight="1">
-      <c r="A22" s="9">
+      <c r="A22" s="12">
         <v>20</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" ht="20.2" customHeight="1">
-      <c r="A23" s="9">
+      <c r="A23" s="12">
         <v>21</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" ht="20.2" customHeight="1">
-      <c r="A24" s="9">
+      <c r="A24" s="12">
         <v>22</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" ht="20.2" customHeight="1">
-      <c r="A25" s="9">
+      <c r="A25" s="12">
         <v>23</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" ht="20.2" customHeight="1">
-      <c r="A26" s="9">
+      <c r="A26" s="12">
         <v>24</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" ht="20.2" customHeight="1">
-      <c r="A27" s="9">
+      <c r="A27" s="12">
         <v>25</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" ht="20.2" customHeight="1">
-      <c r="A28" s="9">
+      <c r="A28" s="12">
         <v>26</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" ht="20.2" customHeight="1">
-      <c r="A29" s="9">
+      <c r="A29" s="12">
         <v>27</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" ht="20.2" customHeight="1">
-      <c r="A30" s="9">
+      <c r="A30" s="12">
         <v>28</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" ht="20.2" customHeight="1">
-      <c r="A31" s="9">
+      <c r="A31" s="12">
         <v>29</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" ht="20.2" customHeight="1">
-      <c r="A32" s="9">
+      <c r="A32" s="12">
         <v>30</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" ht="20.2" customHeight="1">
-      <c r="A33" s="9">
+      <c r="A33" s="12">
         <v>31</v>
       </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" ht="20.2" customHeight="1">
-      <c r="A34" s="9">
+      <c r="A34" s="12">
         <v>32</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" ht="20.2" customHeight="1">
-      <c r="A35" s="9">
+      <c r="A35" s="12">
         <v>33</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" ht="20.2" customHeight="1">
-      <c r="A36" s="9">
+      <c r="A36" s="12">
         <v>34</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" ht="20.2" customHeight="1">
-      <c r="A37" s="9">
+      <c r="A37" s="12">
         <v>35</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" ht="20.2" customHeight="1">
-      <c r="A38" s="9">
+      <c r="A38" s="12">
         <v>36</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" ht="20.2" customHeight="1">
-      <c r="A39" s="9">
+      <c r="A39" s="12">
         <v>37</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" ht="20.2" customHeight="1">
-      <c r="A40" s="9">
+      <c r="A40" s="12">
         <v>38</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" ht="20.2" customHeight="1">
-      <c r="A41" s="9">
+      <c r="A41" s="12">
         <v>39</v>
       </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
+      <c r="B41" s="15"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" ht="20.2" customHeight="1">
-      <c r="A42" s="9">
+      <c r="A42" s="12">
         <v>40</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" ht="20.2" customHeight="1">
-      <c r="A43" s="9">
+      <c r="A43" s="12">
         <v>41</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" ht="20.2" customHeight="1">
-      <c r="A44" s="9">
+      <c r="A44" s="12">
         <v>42</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" ht="20.2" customHeight="1">
-      <c r="A45" s="9">
+      <c r="A45" s="12">
         <v>43</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" ht="20.2" customHeight="1">
-      <c r="A46" s="9">
+      <c r="A46" s="12">
         <v>44</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" ht="20.2" customHeight="1">
-      <c r="A47" s="9">
+      <c r="A47" s="12">
         <v>45</v>
       </c>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" ht="20.2" customHeight="1">
-      <c r="A48" s="9">
+      <c r="A48" s="12">
         <v>46</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" ht="20.2" customHeight="1">
-      <c r="A49" s="9">
+      <c r="A49" s="12">
         <v>47</v>
       </c>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" ht="20.2" customHeight="1">
-      <c r="A50" s="9">
+      <c r="A50" s="12">
         <v>48</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" ht="20.2" customHeight="1">
-      <c r="A51" s="9">
+      <c r="A51" s="12">
         <v>49</v>
       </c>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" ht="20.2" customHeight="1">
-      <c r="A52" s="9">
+      <c r="A52" s="12">
         <v>50</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" ht="20.2" customHeight="1">
-      <c r="A53" s="9">
+      <c r="A53" s="12">
         <v>51</v>
       </c>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" ht="20.2" customHeight="1">
-      <c r="A54" s="9">
+      <c r="A54" s="12">
         <v>52</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" ht="20.2" customHeight="1">
-      <c r="A55" s="9">
+      <c r="A55" s="12">
         <v>53</v>
       </c>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" ht="20.2" customHeight="1">
-      <c r="A56" s="9">
+      <c r="A56" s="12">
         <v>54</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" ht="20.2" customHeight="1">
-      <c r="A57" s="9">
+      <c r="A57" s="12">
         <v>55</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
+      <c r="B57" s="15"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" ht="20.2" customHeight="1">
-      <c r="A58" s="9">
+      <c r="A58" s="12">
         <v>56</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" ht="20.2" customHeight="1">
-      <c r="A59" s="9">
+      <c r="A59" s="12">
         <v>57</v>
       </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
+      <c r="B59" s="15"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" ht="20.2" customHeight="1">
-      <c r="A60" s="9">
+      <c r="A60" s="12">
         <v>58</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" ht="20.2" customHeight="1">
-      <c r="A61" s="9">
+      <c r="A61" s="12">
         <v>59</v>
       </c>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" ht="20.2" customHeight="1">
-      <c r="A62" s="9">
+      <c r="A62" s="12">
         <v>60</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" ht="20.2" customHeight="1">
-      <c r="A63" s="9">
+      <c r="A63" s="12">
         <v>61</v>
       </c>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" ht="20.2" customHeight="1">
-      <c r="A64" s="9">
+      <c r="A64" s="12">
         <v>62</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" ht="20.2" customHeight="1">
-      <c r="A65" s="9">
+      <c r="A65" s="12">
         <v>63</v>
       </c>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" ht="20.2" customHeight="1">
-      <c r="A66" s="9">
+      <c r="A66" s="12">
         <v>64</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" ht="20.2" customHeight="1">
-      <c r="A67" s="9">
+      <c r="A67" s="12">
         <v>65</v>
       </c>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="13"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" ht="20.2" customHeight="1">
-      <c r="A68" s="9">
+      <c r="A68" s="12">
         <v>66</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="8"/>
     </row>
     <row r="69" ht="20.2" customHeight="1">
-      <c r="A69" s="9">
+      <c r="A69" s="12">
         <v>67</v>
       </c>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" ht="20.2" customHeight="1">
-      <c r="A70" s="9">
+      <c r="A70" s="12">
         <v>68</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="8"/>
     </row>
     <row r="71" ht="20.2" customHeight="1">
-      <c r="A71" s="9">
+      <c r="A71" s="12">
         <v>69</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
+      <c r="B71" s="15"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="8"/>
     </row>
     <row r="72" ht="20.2" customHeight="1">
-      <c r="A72" s="9">
+      <c r="A72" s="12">
         <v>70</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" ht="20.2" customHeight="1">
-      <c r="A73" s="9">
+      <c r="A73" s="12">
         <v>71</v>
       </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
+      <c r="B73" s="15"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="8"/>
     </row>
     <row r="74" ht="20.2" customHeight="1">
-      <c r="A74" s="9">
+      <c r="A74" s="12">
         <v>72</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" ht="20.2" customHeight="1">
-      <c r="A75" s="9">
+      <c r="A75" s="12">
         <v>73</v>
       </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
+      <c r="B75" s="15"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" ht="20.2" customHeight="1">
-      <c r="A76" s="9">
+      <c r="A76" s="12">
         <v>74</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" ht="20.2" customHeight="1">
-      <c r="A77" s="9">
+      <c r="A77" s="12">
         <v>75</v>
       </c>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" ht="20.2" customHeight="1">
-      <c r="A78" s="9">
+      <c r="A78" s="12">
         <v>76</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" ht="20.2" customHeight="1">
-      <c r="A79" s="9">
+      <c r="A79" s="12">
         <v>77</v>
       </c>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
+      <c r="B79" s="15"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" ht="20.2" customHeight="1">
-      <c r="A80" s="9">
+      <c r="A80" s="12">
         <v>78</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="8"/>
     </row>
     <row r="81" ht="20.2" customHeight="1">
-      <c r="A81" s="9">
+      <c r="A81" s="12">
         <v>79</v>
       </c>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
+      <c r="B81" s="15"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" ht="20.2" customHeight="1">
-      <c r="A82" s="9">
+      <c r="A82" s="12">
         <v>80</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="8"/>
     </row>
     <row r="83" ht="20.2" customHeight="1">
-      <c r="A83" s="9">
+      <c r="A83" s="12">
         <v>81</v>
       </c>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" ht="20.2" customHeight="1">
-      <c r="A84" s="9">
+      <c r="A84" s="12">
         <v>82</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="8"/>
     </row>
     <row r="85" ht="20.2" customHeight="1">
-      <c r="A85" s="9">
+      <c r="A85" s="12">
         <v>83</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
+      <c r="B85" s="15"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" ht="20.2" customHeight="1">
-      <c r="A86" s="9">
+      <c r="A86" s="12">
         <v>84</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="8"/>
     </row>
     <row r="87" ht="20.2" customHeight="1">
-      <c r="A87" s="9">
+      <c r="A87" s="12">
         <v>85</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
+      <c r="B87" s="15"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" ht="20.2" customHeight="1">
-      <c r="A88" s="9">
+      <c r="A88" s="12">
         <v>86</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="8"/>
     </row>
     <row r="89" ht="20.2" customHeight="1">
-      <c r="A89" s="9">
+      <c r="A89" s="12">
         <v>87</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="8"/>
     </row>
     <row r="90" ht="20.2" customHeight="1">
-      <c r="A90" s="9">
+      <c r="A90" s="12">
         <v>88</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="8"/>
     </row>
     <row r="91" ht="20.2" customHeight="1">
-      <c r="A91" s="9">
+      <c r="A91" s="12">
         <v>89</v>
       </c>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="8"/>
     </row>
     <row r="92" ht="20.2" customHeight="1">
-      <c r="A92" s="9">
+      <c r="A92" s="12">
         <v>90</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="8"/>
     </row>
     <row r="93" ht="20.2" customHeight="1">
-      <c r="A93" s="9">
+      <c r="A93" s="12">
         <v>91</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="8"/>
     </row>
     <row r="94" ht="20.2" customHeight="1">
-      <c r="A94" s="9">
+      <c r="A94" s="12">
         <v>92</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="8"/>
     </row>
     <row r="95" ht="20.2" customHeight="1">
-      <c r="A95" s="9">
+      <c r="A95" s="12">
         <v>93</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="8"/>
     </row>
     <row r="96" ht="20.2" customHeight="1">
-      <c r="A96" s="9">
+      <c r="A96" s="12">
         <v>94</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="8"/>
     </row>
     <row r="97" ht="20.2" customHeight="1">
-      <c r="A97" s="9">
+      <c r="A97" s="12">
         <v>95</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13"/>
+      <c r="B97" s="15"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="8"/>
     </row>
     <row r="98" ht="20.2" customHeight="1">
-      <c r="A98" s="9">
+      <c r="A98" s="12">
         <v>96</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="8"/>
     </row>
     <row r="99" ht="20.2" customHeight="1">
-      <c r="A99" s="9">
+      <c r="A99" s="12">
         <v>97</v>
       </c>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="8"/>
     </row>
     <row r="100" ht="20.2" customHeight="1">
-      <c r="A100" s="9">
+      <c r="A100" s="12">
         <v>98</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="8"/>
     </row>
     <row r="101" ht="20.2" customHeight="1">
-      <c r="A101" s="9">
+      <c r="A101" s="12">
         <v>99</v>
       </c>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
+      <c r="B101" s="15"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="8"/>
     </row>
     <row r="102" ht="20.2" customHeight="1">
-      <c r="A102" s="9">
+      <c r="A102" s="12">
         <v>100</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="8"/>
     </row>
     <row r="103" ht="20.2" customHeight="1">
-      <c r="A103" s="9">
+      <c r="A103" s="12">
         <v>101</v>
       </c>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="8"/>
     </row>
     <row r="104" ht="20.2" customHeight="1">
-      <c r="A104" s="9">
+      <c r="A104" s="12">
         <v>102</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="8"/>
     </row>
     <row r="105" ht="20.2" customHeight="1">
-      <c r="A105" s="9">
+      <c r="A105" s="12">
         <v>103</v>
       </c>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
+      <c r="B105" s="15"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="8"/>
     </row>
     <row r="106" ht="20.2" customHeight="1">
-      <c r="A106" s="9">
+      <c r="A106" s="12">
         <v>104</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="8"/>
     </row>
     <row r="107" ht="20.2" customHeight="1">
-      <c r="A107" s="9">
+      <c r="A107" s="12">
         <v>105</v>
       </c>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
+      <c r="B107" s="15"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="8"/>
     </row>
     <row r="108" ht="20.2" customHeight="1">
-      <c r="A108" s="9">
+      <c r="A108" s="12">
         <v>106</v>
       </c>
-      <c r="B108" s="10"/>
-      <c r="C108" s="11"/>
-      <c r="D108" s="11"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="8"/>
     </row>
     <row r="109" ht="20.2" customHeight="1">
-      <c r="A109" s="9">
+      <c r="A109" s="12">
         <v>107</v>
       </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
+      <c r="B109" s="15"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="8"/>
     </row>
     <row r="110" ht="20.2" customHeight="1">
-      <c r="A110" s="9">
+      <c r="A110" s="12">
         <v>108</v>
       </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="8"/>
     </row>
     <row r="111" ht="20.2" customHeight="1">
-      <c r="A111" s="9">
+      <c r="A111" s="12">
         <v>109</v>
       </c>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
+      <c r="B111" s="15"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="8"/>
     </row>
     <row r="112" ht="20.2" customHeight="1">
-      <c r="A112" s="9">
+      <c r="A112" s="12">
         <v>110</v>
       </c>
-      <c r="B112" s="10"/>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="8"/>
     </row>
     <row r="113" ht="20.2" customHeight="1">
-      <c r="A113" s="9">
+      <c r="A113" s="12">
         <v>111</v>
       </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
+      <c r="B113" s="15"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="8"/>
     </row>
     <row r="114" ht="20.2" customHeight="1">
-      <c r="A114" s="9">
+      <c r="A114" s="12">
         <v>112</v>
       </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="8"/>
     </row>
     <row r="115" ht="20.2" customHeight="1">
-      <c r="A115" s="9">
+      <c r="A115" s="12">
         <v>113</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
+      <c r="B115" s="15"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="8"/>
     </row>
     <row r="116" ht="20.2" customHeight="1">
-      <c r="A116" s="9">
+      <c r="A116" s="12">
         <v>114</v>
       </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="8"/>
     </row>
     <row r="117" ht="20.2" customHeight="1">
-      <c r="A117" s="9">
+      <c r="A117" s="12">
         <v>115</v>
       </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
+      <c r="B117" s="15"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="8"/>
     </row>
     <row r="118" ht="20.2" customHeight="1">
-      <c r="A118" s="9">
+      <c r="A118" s="12">
         <v>116</v>
       </c>
-      <c r="B118" s="10"/>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="8"/>
     </row>
     <row r="119" ht="20.2" customHeight="1">
-      <c r="A119" s="9">
+      <c r="A119" s="12">
         <v>117</v>
       </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
+      <c r="B119" s="15"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="8"/>
     </row>
     <row r="120" ht="20.2" customHeight="1">
-      <c r="A120" s="9">
+      <c r="A120" s="12">
         <v>118</v>
       </c>
-      <c r="B120" s="10"/>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="8"/>
     </row>
     <row r="121" ht="20.2" customHeight="1">
-      <c r="A121" s="9">
+      <c r="A121" s="12">
         <v>119</v>
       </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
+      <c r="B121" s="15"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="8"/>
     </row>
     <row r="122" ht="20.2" customHeight="1">
-      <c r="A122" s="9">
+      <c r="A122" s="12">
         <v>120</v>
       </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="11"/>
-      <c r="D122" s="11"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="8"/>
     </row>
     <row r="123" ht="20.2" customHeight="1">
-      <c r="A123" s="9">
+      <c r="A123" s="12">
         <v>121</v>
       </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
+      <c r="B123" s="15"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="8"/>
     </row>
     <row r="124" ht="20.2" customHeight="1">
-      <c r="A124" s="9">
+      <c r="A124" s="12">
         <v>122</v>
       </c>
-      <c r="B124" s="10"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="11"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="8"/>
     </row>
     <row r="125" ht="20.2" customHeight="1">
-      <c r="A125" s="9">
+      <c r="A125" s="12">
         <v>123</v>
       </c>
-      <c r="B125" s="12"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
+      <c r="B125" s="15"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="8"/>
     </row>
     <row r="126" ht="20.2" customHeight="1">
-      <c r="A126" s="9">
+      <c r="A126" s="12">
         <v>124</v>
       </c>
-      <c r="B126" s="10"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="8"/>
     </row>
     <row r="127" ht="20.2" customHeight="1">
-      <c r="A127" s="9">
+      <c r="A127" s="12">
         <v>125</v>
       </c>
-      <c r="B127" s="12"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
+      <c r="B127" s="15"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="8"/>
     </row>
     <row r="128" ht="20.2" customHeight="1">
-      <c r="A128" s="9">
+      <c r="A128" s="12">
         <v>126</v>
       </c>
-      <c r="B128" s="10"/>
-      <c r="C128" s="11"/>
-      <c r="D128" s="11"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="8"/>
     </row>
     <row r="129" ht="20.2" customHeight="1">
-      <c r="A129" s="9">
+      <c r="A129" s="12">
         <v>127</v>
       </c>
-      <c r="B129" s="12"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="8"/>
     </row>
     <row r="130" ht="20.2" customHeight="1">
-      <c r="A130" s="9">
+      <c r="A130" s="12">
         <v>128</v>
       </c>
-      <c r="B130" s="10"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="8"/>
     </row>
     <row r="131" ht="20.2" customHeight="1">
-      <c r="A131" s="9">
+      <c r="A131" s="12">
         <v>129</v>
       </c>
-      <c r="B131" s="12"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13"/>
+      <c r="B131" s="15"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="8"/>
     </row>
     <row r="132" ht="20.2" customHeight="1">
-      <c r="A132" s="9">
+      <c r="A132" s="12">
         <v>130</v>
       </c>
-      <c r="B132" s="10"/>
-      <c r="C132" s="11"/>
-      <c r="D132" s="11"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="8"/>
     </row>
     <row r="133" ht="20.2" customHeight="1">
-      <c r="A133" s="9">
+      <c r="A133" s="12">
         <v>131</v>
       </c>
-      <c r="B133" s="12"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="8"/>
     </row>
     <row r="134" ht="20.2" customHeight="1">
-      <c r="A134" s="9">
+      <c r="A134" s="12">
         <v>132</v>
       </c>
-      <c r="B134" s="10"/>
-      <c r="C134" s="11"/>
-      <c r="D134" s="11"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="8"/>
     </row>
     <row r="135" ht="20.2" customHeight="1">
-      <c r="A135" s="9">
+      <c r="A135" s="12">
         <v>133</v>
       </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="8"/>
     </row>
     <row r="136" ht="20.2" customHeight="1">
-      <c r="A136" s="9">
+      <c r="A136" s="12">
         <v>134</v>
       </c>
-      <c r="B136" s="10"/>
-      <c r="C136" s="11"/>
-      <c r="D136" s="11"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="8"/>
     </row>
     <row r="137" ht="20.2" customHeight="1">
-      <c r="A137" s="9">
+      <c r="A137" s="12">
         <v>135</v>
       </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="8"/>
     </row>
     <row r="138" ht="20.2" customHeight="1">
-      <c r="A138" s="9">
+      <c r="A138" s="12">
         <v>136</v>
       </c>
-      <c r="B138" s="10"/>
-      <c r="C138" s="11"/>
-      <c r="D138" s="11"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="8"/>
     </row>
     <row r="139" ht="20.2" customHeight="1">
-      <c r="A139" s="9">
+      <c r="A139" s="12">
         <v>137</v>
       </c>
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="8"/>
     </row>
     <row r="140" ht="20.2" customHeight="1">
-      <c r="A140" s="9">
+      <c r="A140" s="12">
         <v>138</v>
       </c>
-      <c r="B140" s="10"/>
-      <c r="C140" s="11"/>
-      <c r="D140" s="11"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="8"/>
     </row>
     <row r="141" ht="20.2" customHeight="1">
-      <c r="A141" s="9">
+      <c r="A141" s="12">
         <v>139</v>
       </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13"/>
+      <c r="B141" s="15"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="8"/>
     </row>
     <row r="142" ht="20.2" customHeight="1">
-      <c r="A142" s="9">
+      <c r="A142" s="12">
         <v>140</v>
       </c>
-      <c r="B142" s="10"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="8"/>
     </row>
     <row r="143" ht="20.2" customHeight="1">
-      <c r="A143" s="9">
+      <c r="A143" s="12">
         <v>141</v>
       </c>
-      <c r="B143" s="12"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="8"/>
     </row>
     <row r="144" ht="20.2" customHeight="1">
-      <c r="A144" s="9">
+      <c r="A144" s="12">
         <v>142</v>
       </c>
-      <c r="B144" s="10"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="8"/>
     </row>
     <row r="145" ht="20.2" customHeight="1">
-      <c r="A145" s="9">
+      <c r="A145" s="12">
         <v>143</v>
       </c>
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="8"/>
     </row>
     <row r="146" ht="20.2" customHeight="1">
-      <c r="A146" s="9">
+      <c r="A146" s="12">
         <v>144</v>
       </c>
-      <c r="B146" s="10"/>
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="8"/>
     </row>
     <row r="147" ht="20.2" customHeight="1">
-      <c r="A147" s="9">
+      <c r="A147" s="12">
         <v>145</v>
       </c>
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="13"/>
+      <c r="B147" s="15"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="8"/>
     </row>
     <row r="148" ht="20.2" customHeight="1">
-      <c r="A148" s="9">
+      <c r="A148" s="12">
         <v>146</v>
       </c>
-      <c r="B148" s="10"/>
-      <c r="C148" s="11"/>
-      <c r="D148" s="11"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="8"/>
     </row>
     <row r="149" ht="20.2" customHeight="1">
-      <c r="A149" s="9">
+      <c r="A149" s="12">
         <v>147</v>
       </c>
-      <c r="B149" s="12"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="8"/>
     </row>
     <row r="150" ht="20.2" customHeight="1">
-      <c r="A150" s="9">
+      <c r="A150" s="12">
         <v>148</v>
       </c>
-      <c r="B150" s="10"/>
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="8"/>
     </row>
     <row r="151" ht="20.2" customHeight="1">
-      <c r="A151" s="9">
+      <c r="A151" s="12">
         <v>149</v>
       </c>
-      <c r="B151" s="12"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="8"/>
     </row>
     <row r="152" ht="20.2" customHeight="1">
-      <c r="A152" s="9">
+      <c r="A152" s="12">
         <v>150</v>
       </c>
-      <c r="B152" s="10"/>
-      <c r="C152" s="11"/>
-      <c r="D152" s="11"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="8"/>
     </row>
     <row r="153" ht="20.2" customHeight="1">
-      <c r="A153" s="9">
+      <c r="A153" s="12">
         <v>151</v>
       </c>
-      <c r="B153" s="12"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="13"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="8"/>
     </row>
     <row r="154" ht="20.2" customHeight="1">
-      <c r="A154" s="9">
+      <c r="A154" s="12">
         <v>152</v>
       </c>
-      <c r="B154" s="10"/>
-      <c r="C154" s="11"/>
-      <c r="D154" s="11"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="8"/>
     </row>
     <row r="155" ht="20.2" customHeight="1">
-      <c r="A155" s="9">
+      <c r="A155" s="12">
         <v>153</v>
       </c>
-      <c r="B155" s="12"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="8"/>
     </row>
     <row r="156" ht="20.2" customHeight="1">
-      <c r="A156" s="9">
+      <c r="A156" s="12">
         <v>154</v>
       </c>
-      <c r="B156" s="10"/>
-      <c r="C156" s="11"/>
-      <c r="D156" s="11"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="8"/>
     </row>
     <row r="157" ht="20.2" customHeight="1">
-      <c r="A157" s="9">
+      <c r="A157" s="12">
         <v>155</v>
       </c>
-      <c r="B157" s="12"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
+      <c r="B157" s="15"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="8"/>
     </row>
     <row r="158" ht="20.2" customHeight="1">
-      <c r="A158" s="9">
+      <c r="A158" s="12">
         <v>156</v>
       </c>
-      <c r="B158" s="10"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="8"/>
     </row>
     <row r="159" ht="20.2" customHeight="1">
-      <c r="A159" s="9">
+      <c r="A159" s="12">
         <v>157</v>
       </c>
-      <c r="B159" s="12"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13"/>
+      <c r="B159" s="15"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="8"/>
     </row>
     <row r="160" ht="20.2" customHeight="1">
-      <c r="A160" s="9">
+      <c r="A160" s="12">
         <v>158</v>
       </c>
-      <c r="B160" s="10"/>
-      <c r="C160" s="11"/>
-      <c r="D160" s="11"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="8"/>
     </row>
     <row r="161" ht="20.2" customHeight="1">
-      <c r="A161" s="9">
+      <c r="A161" s="12">
         <v>159</v>
       </c>
-      <c r="B161" s="12"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="8"/>
     </row>
     <row r="162" ht="20.2" customHeight="1">
-      <c r="A162" s="9">
+      <c r="A162" s="12">
         <v>160</v>
       </c>
-      <c r="B162" s="10"/>
-      <c r="C162" s="11"/>
-      <c r="D162" s="11"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="8"/>
     </row>
     <row r="163" ht="20.2" customHeight="1">
-      <c r="A163" s="9">
+      <c r="A163" s="12">
         <v>161</v>
       </c>
-      <c r="B163" s="12"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13"/>
+      <c r="B163" s="15"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="8"/>
     </row>
     <row r="164" ht="20.2" customHeight="1">
-      <c r="A164" s="9">
+      <c r="A164" s="12">
         <v>162</v>
       </c>
-      <c r="B164" s="10"/>
-      <c r="C164" s="11"/>
-      <c r="D164" s="11"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="8"/>
     </row>
     <row r="165" ht="20.2" customHeight="1">
-      <c r="A165" s="9">
+      <c r="A165" s="12">
         <v>163</v>
       </c>
-      <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="8"/>
     </row>
     <row r="166" ht="20.2" customHeight="1">
-      <c r="A166" s="9">
+      <c r="A166" s="12">
         <v>164</v>
       </c>
-      <c r="B166" s="10"/>
-      <c r="C166" s="11"/>
-      <c r="D166" s="11"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="8"/>
     </row>
     <row r="167" ht="20.2" customHeight="1">
-      <c r="A167" s="9">
+      <c r="A167" s="12">
         <v>165</v>
       </c>
-      <c r="B167" s="12"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13"/>
+      <c r="B167" s="15"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="8"/>
     </row>
     <row r="168" ht="20.2" customHeight="1">
-      <c r="A168" s="9">
+      <c r="A168" s="12">
         <v>166</v>
       </c>
-      <c r="B168" s="10"/>
-      <c r="C168" s="11"/>
-      <c r="D168" s="11"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="8"/>
     </row>
     <row r="169" ht="20.2" customHeight="1">
-      <c r="A169" s="9">
+      <c r="A169" s="12">
         <v>167</v>
       </c>
-      <c r="B169" s="12"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13"/>
+      <c r="B169" s="15"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="8"/>
     </row>
     <row r="170" ht="20.2" customHeight="1">
-      <c r="A170" s="9">
+      <c r="A170" s="12">
         <v>168</v>
       </c>
-      <c r="B170" s="10"/>
-      <c r="C170" s="11"/>
-      <c r="D170" s="11"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="8"/>
     </row>
     <row r="171" ht="20.2" customHeight="1">
-      <c r="A171" s="9">
+      <c r="A171" s="12">
         <v>169</v>
       </c>
-      <c r="B171" s="12"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="8"/>
     </row>
     <row r="172" ht="20.2" customHeight="1">
-      <c r="A172" s="9">
+      <c r="A172" s="12">
         <v>170</v>
       </c>
-      <c r="B172" s="10"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="11"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="8"/>
     </row>
     <row r="173" ht="20.2" customHeight="1">
-      <c r="A173" s="9">
+      <c r="A173" s="12">
         <v>171</v>
       </c>
-      <c r="B173" s="12"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="13"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="8"/>
     </row>
     <row r="174" ht="20.2" customHeight="1">
-      <c r="A174" s="9">
+      <c r="A174" s="12">
         <v>172</v>
       </c>
-      <c r="B174" s="10"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="11"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="8"/>
     </row>
     <row r="175" ht="20.2" customHeight="1">
-      <c r="A175" s="9">
+      <c r="A175" s="12">
         <v>173</v>
       </c>
-      <c r="B175" s="12"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="13"/>
+      <c r="B175" s="15"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="8"/>
     </row>
     <row r="176" ht="20.2" customHeight="1">
-      <c r="A176" s="9">
+      <c r="A176" s="12">
         <v>174</v>
       </c>
-      <c r="B176" s="10"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="11"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="8"/>
     </row>
     <row r="177" ht="20.2" customHeight="1">
-      <c r="A177" s="9">
+      <c r="A177" s="12">
         <v>175</v>
       </c>
-      <c r="B177" s="12"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="13"/>
+      <c r="B177" s="15"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="8"/>
     </row>
     <row r="178" ht="20.2" customHeight="1">
-      <c r="A178" s="9">
+      <c r="A178" s="12">
         <v>176</v>
       </c>
-      <c r="B178" s="10"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="11"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="8"/>
     </row>
     <row r="179" ht="20.2" customHeight="1">
-      <c r="A179" s="9">
+      <c r="A179" s="12">
         <v>177</v>
       </c>
-      <c r="B179" s="12"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
+      <c r="B179" s="15"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="8"/>
     </row>
     <row r="180" ht="20.2" customHeight="1">
-      <c r="A180" s="9">
+      <c r="A180" s="12">
         <v>178</v>
       </c>
-      <c r="B180" s="10"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="11"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="8"/>
     </row>
     <row r="181" ht="20.2" customHeight="1">
-      <c r="A181" s="9">
+      <c r="A181" s="12">
         <v>179</v>
       </c>
-      <c r="B181" s="12"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="13"/>
+      <c r="B181" s="15"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="8"/>
     </row>
     <row r="182" ht="20.2" customHeight="1">
-      <c r="A182" s="9">
+      <c r="A182" s="12">
         <v>180</v>
       </c>
-      <c r="B182" s="10"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="11"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="8"/>
     </row>
     <row r="183" ht="20.2" customHeight="1">
-      <c r="A183" s="9">
+      <c r="A183" s="12">
         <v>181</v>
       </c>
-      <c r="B183" s="12"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="13"/>
+      <c r="B183" s="15"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="8"/>
     </row>
     <row r="184" ht="20.2" customHeight="1">
-      <c r="A184" s="9">
+      <c r="A184" s="12">
         <v>182</v>
       </c>
-      <c r="B184" s="10"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="11"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="8"/>
     </row>
     <row r="185" ht="20.2" customHeight="1">
-      <c r="A185" s="9">
+      <c r="A185" s="12">
         <v>183</v>
       </c>
-      <c r="B185" s="12"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13"/>
+      <c r="B185" s="15"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="8"/>
     </row>
     <row r="186" ht="20.2" customHeight="1">
-      <c r="A186" s="9">
+      <c r="A186" s="12">
         <v>184</v>
       </c>
-      <c r="B186" s="10"/>
-      <c r="C186" s="11"/>
-      <c r="D186" s="11"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="8"/>
     </row>
     <row r="187" ht="20.2" customHeight="1">
-      <c r="A187" s="9">
+      <c r="A187" s="12">
         <v>185</v>
       </c>
-      <c r="B187" s="12"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="8"/>
     </row>
     <row r="188" ht="20.2" customHeight="1">
-      <c r="A188" s="9">
+      <c r="A188" s="12">
         <v>186</v>
       </c>
-      <c r="B188" s="10"/>
-      <c r="C188" s="11"/>
-      <c r="D188" s="11"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="8"/>
     </row>
     <row r="189" ht="20.2" customHeight="1">
-      <c r="A189" s="9">
+      <c r="A189" s="12">
         <v>187</v>
       </c>
-      <c r="B189" s="12"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="8"/>
     </row>
     <row r="190" ht="20.2" customHeight="1">
-      <c r="A190" s="9">
+      <c r="A190" s="12">
         <v>188</v>
       </c>
-      <c r="B190" s="10"/>
-      <c r="C190" s="11"/>
-      <c r="D190" s="11"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="8"/>
     </row>
     <row r="191" ht="20.2" customHeight="1">
-      <c r="A191" s="9">
+      <c r="A191" s="12">
         <v>189</v>
       </c>
-      <c r="B191" s="12"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13"/>
+      <c r="B191" s="15"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="8"/>
     </row>
     <row r="192" ht="20.2" customHeight="1">
-      <c r="A192" s="9">
+      <c r="A192" s="12">
         <v>190</v>
       </c>
-      <c r="B192" s="10"/>
-      <c r="C192" s="11"/>
-      <c r="D192" s="11"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="8"/>
     </row>
     <row r="193" ht="20.2" customHeight="1">
-      <c r="A193" s="9">
+      <c r="A193" s="12">
         <v>191</v>
       </c>
-      <c r="B193" s="12"/>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13"/>
+      <c r="B193" s="15"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="8"/>
     </row>
     <row r="194" ht="20.2" customHeight="1">
-      <c r="A194" s="9">
+      <c r="A194" s="12">
         <v>192</v>
       </c>
-      <c r="B194" s="10"/>
-      <c r="C194" s="11"/>
-      <c r="D194" s="11"/>
+      <c r="B194" s="13"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/extra_izv.xlsx
+++ b/extra_izv.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>Количество переданных в ФБУЗ «Центр гигиены и эпидимиологии в Санкт-Петербурге» экстренных извещений Роспотребнадзора</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Экстренных извещений U07.1</t>
+  </si>
+  <si>
+    <t>Должники</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -120,6 +123,19 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -179,10 +195,23 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="10"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -280,7 +309,7 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -294,7 +323,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -310,8 +339,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -319,34 +348,43 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1434,18 +1472,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E194"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="56.8516" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.1719" style="1" customWidth="1"/>
     <col min="4" max="4" width="31.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.74219" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.7344" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1456,1749 +1495,1945 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" ht="20.45" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="A2" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" t="s" s="8">
         <v>3</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" t="s" s="10">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" ht="20.45" customHeight="1">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>1</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" ht="20.2" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="8"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" ht="20.2" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="8"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" ht="20.2" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="15">
         <v>4</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="8"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="17"/>
     </row>
     <row r="7" ht="20.2" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="15">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="8"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" ht="20.2" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="15">
         <v>6</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="8"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="17"/>
     </row>
     <row r="9" ht="20.2" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="15">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="8"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="19"/>
     </row>
     <row r="10" ht="20.2" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="15">
         <v>8</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="8"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="11" ht="20.2" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="15">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="8"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="19"/>
     </row>
     <row r="12" ht="20.2" customHeight="1">
-      <c r="A12" s="12">
+      <c r="A12" s="15">
         <v>10</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="8"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="17"/>
     </row>
     <row r="13" ht="20.2" customHeight="1">
-      <c r="A13" s="12">
+      <c r="A13" s="15">
         <v>11</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="8"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" ht="20.2" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="15">
         <v>12</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="8"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="17"/>
     </row>
     <row r="15" ht="20.2" customHeight="1">
-      <c r="A15" s="12">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="8"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" ht="20.2" customHeight="1">
-      <c r="A16" s="12">
+      <c r="A16" s="15">
         <v>14</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="8"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" ht="20.2" customHeight="1">
-      <c r="A17" s="12">
+      <c r="A17" s="15">
         <v>15</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="8"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" ht="20.2" customHeight="1">
-      <c r="A18" s="12">
+      <c r="A18" s="15">
         <v>16</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="8"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" ht="20.2" customHeight="1">
-      <c r="A19" s="12">
+      <c r="A19" s="15">
         <v>17</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="8"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" ht="20.2" customHeight="1">
-      <c r="A20" s="12">
+      <c r="A20" s="15">
         <v>18</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" ht="20.2" customHeight="1">
-      <c r="A21" s="12">
+      <c r="A21" s="15">
         <v>19</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="19"/>
     </row>
     <row r="22" ht="20.2" customHeight="1">
-      <c r="A22" s="12">
+      <c r="A22" s="15">
         <v>20</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="8"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" ht="20.2" customHeight="1">
-      <c r="A23" s="12">
+      <c r="A23" s="15">
         <v>21</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="8"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" ht="20.2" customHeight="1">
-      <c r="A24" s="12">
+      <c r="A24" s="15">
         <v>22</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="8"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="17"/>
     </row>
     <row r="25" ht="20.2" customHeight="1">
-      <c r="A25" s="12">
+      <c r="A25" s="15">
         <v>23</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="8"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="19"/>
     </row>
     <row r="26" ht="20.2" customHeight="1">
-      <c r="A26" s="12">
+      <c r="A26" s="15">
         <v>24</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="8"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" ht="20.2" customHeight="1">
-      <c r="A27" s="12">
+      <c r="A27" s="15">
         <v>25</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="8"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="28" ht="20.2" customHeight="1">
-      <c r="A28" s="12">
+      <c r="A28" s="15">
         <v>26</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="8"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" ht="20.2" customHeight="1">
-      <c r="A29" s="12">
+      <c r="A29" s="15">
         <v>27</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="8"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="19"/>
     </row>
     <row r="30" ht="20.2" customHeight="1">
-      <c r="A30" s="12">
+      <c r="A30" s="15">
         <v>28</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="8"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="17"/>
     </row>
     <row r="31" ht="20.2" customHeight="1">
-      <c r="A31" s="12">
+      <c r="A31" s="15">
         <v>29</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="8"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" ht="20.2" customHeight="1">
-      <c r="A32" s="12">
+      <c r="A32" s="15">
         <v>30</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="8"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="17"/>
     </row>
     <row r="33" ht="20.2" customHeight="1">
-      <c r="A33" s="12">
+      <c r="A33" s="15">
         <v>31</v>
       </c>
-      <c r="B33" s="15"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="8"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" ht="20.2" customHeight="1">
-      <c r="A34" s="12">
+      <c r="A34" s="15">
         <v>32</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="8"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" ht="20.2" customHeight="1">
-      <c r="A35" s="12">
+      <c r="A35" s="15">
         <v>33</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="8"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="19"/>
     </row>
     <row r="36" ht="20.2" customHeight="1">
-      <c r="A36" s="12">
+      <c r="A36" s="15">
         <v>34</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="8"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="17"/>
     </row>
     <row r="37" ht="20.2" customHeight="1">
-      <c r="A37" s="12">
+      <c r="A37" s="15">
         <v>35</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="8"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" ht="20.2" customHeight="1">
-      <c r="A38" s="12">
+      <c r="A38" s="15">
         <v>36</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="8"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" ht="20.2" customHeight="1">
-      <c r="A39" s="12">
+      <c r="A39" s="15">
         <v>37</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="8"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="19"/>
     </row>
     <row r="40" ht="20.2" customHeight="1">
-      <c r="A40" s="12">
+      <c r="A40" s="15">
         <v>38</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="8"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" ht="20.2" customHeight="1">
-      <c r="A41" s="12">
+      <c r="A41" s="15">
         <v>39</v>
       </c>
-      <c r="B41" s="15"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="8"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="19"/>
     </row>
     <row r="42" ht="20.2" customHeight="1">
-      <c r="A42" s="12">
+      <c r="A42" s="15">
         <v>40</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="8"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="17"/>
     </row>
     <row r="43" ht="20.2" customHeight="1">
-      <c r="A43" s="12">
+      <c r="A43" s="15">
         <v>41</v>
       </c>
-      <c r="B43" s="15"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="8"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="19"/>
     </row>
     <row r="44" ht="20.2" customHeight="1">
-      <c r="A44" s="12">
+      <c r="A44" s="15">
         <v>42</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="8"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="17"/>
     </row>
     <row r="45" ht="20.2" customHeight="1">
-      <c r="A45" s="12">
+      <c r="A45" s="15">
         <v>43</v>
       </c>
-      <c r="B45" s="15"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="8"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" ht="20.2" customHeight="1">
-      <c r="A46" s="12">
+      <c r="A46" s="15">
         <v>44</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="8"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="17"/>
     </row>
     <row r="47" ht="20.2" customHeight="1">
-      <c r="A47" s="12">
+      <c r="A47" s="15">
         <v>45</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="8"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" ht="20.2" customHeight="1">
-      <c r="A48" s="12">
+      <c r="A48" s="15">
         <v>46</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="8"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="17"/>
     </row>
     <row r="49" ht="20.2" customHeight="1">
-      <c r="A49" s="12">
+      <c r="A49" s="15">
         <v>47</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="8"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="19"/>
     </row>
     <row r="50" ht="20.2" customHeight="1">
-      <c r="A50" s="12">
+      <c r="A50" s="15">
         <v>48</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="8"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" ht="20.2" customHeight="1">
-      <c r="A51" s="12">
+      <c r="A51" s="15">
         <v>49</v>
       </c>
-      <c r="B51" s="15"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="8"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="19"/>
     </row>
     <row r="52" ht="20.2" customHeight="1">
-      <c r="A52" s="12">
+      <c r="A52" s="15">
         <v>50</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="8"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="17"/>
     </row>
     <row r="53" ht="20.2" customHeight="1">
-      <c r="A53" s="12">
+      <c r="A53" s="15">
         <v>51</v>
       </c>
-      <c r="B53" s="15"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="8"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="19"/>
     </row>
     <row r="54" ht="20.2" customHeight="1">
-      <c r="A54" s="12">
+      <c r="A54" s="15">
         <v>52</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="8"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="17"/>
     </row>
     <row r="55" ht="20.2" customHeight="1">
-      <c r="A55" s="12">
+      <c r="A55" s="15">
         <v>53</v>
       </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="8"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="19"/>
     </row>
     <row r="56" ht="20.2" customHeight="1">
-      <c r="A56" s="12">
+      <c r="A56" s="15">
         <v>54</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="8"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="17"/>
     </row>
     <row r="57" ht="20.2" customHeight="1">
-      <c r="A57" s="12">
+      <c r="A57" s="15">
         <v>55</v>
       </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="8"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="19"/>
     </row>
     <row r="58" ht="20.2" customHeight="1">
-      <c r="A58" s="12">
+      <c r="A58" s="15">
         <v>56</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="8"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="17"/>
     </row>
     <row r="59" ht="20.2" customHeight="1">
-      <c r="A59" s="12">
+      <c r="A59" s="15">
         <v>57</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="8"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="19"/>
     </row>
     <row r="60" ht="20.2" customHeight="1">
-      <c r="A60" s="12">
+      <c r="A60" s="15">
         <v>58</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="8"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="17"/>
     </row>
     <row r="61" ht="20.2" customHeight="1">
-      <c r="A61" s="12">
+      <c r="A61" s="15">
         <v>59</v>
       </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="8"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="19"/>
     </row>
     <row r="62" ht="20.2" customHeight="1">
-      <c r="A62" s="12">
+      <c r="A62" s="15">
         <v>60</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="8"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" ht="20.2" customHeight="1">
-      <c r="A63" s="12">
+      <c r="A63" s="15">
         <v>61</v>
       </c>
-      <c r="B63" s="15"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="8"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="19"/>
     </row>
     <row r="64" ht="20.2" customHeight="1">
-      <c r="A64" s="12">
+      <c r="A64" s="15">
         <v>62</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="8"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="17"/>
     </row>
     <row r="65" ht="20.2" customHeight="1">
-      <c r="A65" s="12">
+      <c r="A65" s="15">
         <v>63</v>
       </c>
-      <c r="B65" s="15"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="8"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="19"/>
     </row>
     <row r="66" ht="20.2" customHeight="1">
-      <c r="A66" s="12">
+      <c r="A66" s="15">
         <v>64</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="8"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="17"/>
     </row>
     <row r="67" ht="20.2" customHeight="1">
-      <c r="A67" s="12">
+      <c r="A67" s="15">
         <v>65</v>
       </c>
-      <c r="B67" s="15"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="8"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="19"/>
     </row>
     <row r="68" ht="20.2" customHeight="1">
-      <c r="A68" s="12">
+      <c r="A68" s="15">
         <v>66</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="8"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="17"/>
     </row>
     <row r="69" ht="20.2" customHeight="1">
-      <c r="A69" s="12">
+      <c r="A69" s="15">
         <v>67</v>
       </c>
-      <c r="B69" s="15"/>
-      <c r="C69" s="16"/>
-      <c r="D69" s="16"/>
-      <c r="E69" s="8"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="19"/>
     </row>
     <row r="70" ht="20.2" customHeight="1">
-      <c r="A70" s="12">
+      <c r="A70" s="15">
         <v>68</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="8"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="17"/>
     </row>
     <row r="71" ht="20.2" customHeight="1">
-      <c r="A71" s="12">
+      <c r="A71" s="15">
         <v>69</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="8"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="19"/>
     </row>
     <row r="72" ht="20.2" customHeight="1">
-      <c r="A72" s="12">
+      <c r="A72" s="15">
         <v>70</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="8"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="17"/>
     </row>
     <row r="73" ht="20.2" customHeight="1">
-      <c r="A73" s="12">
+      <c r="A73" s="15">
         <v>71</v>
       </c>
-      <c r="B73" s="15"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="8"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="19"/>
     </row>
     <row r="74" ht="20.2" customHeight="1">
-      <c r="A74" s="12">
+      <c r="A74" s="15">
         <v>72</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="8"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="17"/>
     </row>
     <row r="75" ht="20.2" customHeight="1">
-      <c r="A75" s="12">
+      <c r="A75" s="15">
         <v>73</v>
       </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="8"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="19"/>
     </row>
     <row r="76" ht="20.2" customHeight="1">
-      <c r="A76" s="12">
+      <c r="A76" s="15">
         <v>74</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="8"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="17"/>
     </row>
     <row r="77" ht="20.2" customHeight="1">
-      <c r="A77" s="12">
+      <c r="A77" s="15">
         <v>75</v>
       </c>
-      <c r="B77" s="15"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="8"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="19"/>
     </row>
     <row r="78" ht="20.2" customHeight="1">
-      <c r="A78" s="12">
+      <c r="A78" s="15">
         <v>76</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="8"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="17"/>
     </row>
     <row r="79" ht="20.2" customHeight="1">
-      <c r="A79" s="12">
+      <c r="A79" s="15">
         <v>77</v>
       </c>
-      <c r="B79" s="15"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="8"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="19"/>
     </row>
     <row r="80" ht="20.2" customHeight="1">
-      <c r="A80" s="12">
+      <c r="A80" s="15">
         <v>78</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="8"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="17"/>
     </row>
     <row r="81" ht="20.2" customHeight="1">
-      <c r="A81" s="12">
+      <c r="A81" s="15">
         <v>79</v>
       </c>
-      <c r="B81" s="15"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="8"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="19"/>
     </row>
     <row r="82" ht="20.2" customHeight="1">
-      <c r="A82" s="12">
+      <c r="A82" s="15">
         <v>80</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="8"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="17"/>
     </row>
     <row r="83" ht="20.2" customHeight="1">
-      <c r="A83" s="12">
+      <c r="A83" s="15">
         <v>81</v>
       </c>
-      <c r="B83" s="15"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="8"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="19"/>
     </row>
     <row r="84" ht="20.2" customHeight="1">
-      <c r="A84" s="12">
+      <c r="A84" s="15">
         <v>82</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="8"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="17"/>
     </row>
     <row r="85" ht="20.2" customHeight="1">
-      <c r="A85" s="12">
+      <c r="A85" s="15">
         <v>83</v>
       </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="8"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="19"/>
     </row>
     <row r="86" ht="20.2" customHeight="1">
-      <c r="A86" s="12">
+      <c r="A86" s="15">
         <v>84</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="8"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="17"/>
     </row>
     <row r="87" ht="20.2" customHeight="1">
-      <c r="A87" s="12">
+      <c r="A87" s="15">
         <v>85</v>
       </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="8"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="19"/>
     </row>
     <row r="88" ht="20.2" customHeight="1">
-      <c r="A88" s="12">
+      <c r="A88" s="15">
         <v>86</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="8"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="17"/>
     </row>
     <row r="89" ht="20.2" customHeight="1">
-      <c r="A89" s="12">
+      <c r="A89" s="15">
         <v>87</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="8"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="19"/>
     </row>
     <row r="90" ht="20.2" customHeight="1">
-      <c r="A90" s="12">
+      <c r="A90" s="15">
         <v>88</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="8"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="17"/>
     </row>
     <row r="91" ht="20.2" customHeight="1">
-      <c r="A91" s="12">
+      <c r="A91" s="15">
         <v>89</v>
       </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="8"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="19"/>
     </row>
     <row r="92" ht="20.2" customHeight="1">
-      <c r="A92" s="12">
+      <c r="A92" s="15">
         <v>90</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="8"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="17"/>
     </row>
     <row r="93" ht="20.2" customHeight="1">
-      <c r="A93" s="12">
+      <c r="A93" s="15">
         <v>91</v>
       </c>
-      <c r="B93" s="15"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="8"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="19"/>
     </row>
     <row r="94" ht="20.2" customHeight="1">
-      <c r="A94" s="12">
+      <c r="A94" s="15">
         <v>92</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="8"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="17"/>
     </row>
     <row r="95" ht="20.2" customHeight="1">
-      <c r="A95" s="12">
+      <c r="A95" s="15">
         <v>93</v>
       </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="8"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="19"/>
     </row>
     <row r="96" ht="20.2" customHeight="1">
-      <c r="A96" s="12">
+      <c r="A96" s="15">
         <v>94</v>
       </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="8"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="17"/>
     </row>
     <row r="97" ht="20.2" customHeight="1">
-      <c r="A97" s="12">
+      <c r="A97" s="15">
         <v>95</v>
       </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="8"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19"/>
+      <c r="D97" s="19"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="19"/>
     </row>
     <row r="98" ht="20.2" customHeight="1">
-      <c r="A98" s="12">
+      <c r="A98" s="15">
         <v>96</v>
       </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="8"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="17"/>
     </row>
     <row r="99" ht="20.2" customHeight="1">
-      <c r="A99" s="12">
+      <c r="A99" s="15">
         <v>97</v>
       </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="8"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="19"/>
     </row>
     <row r="100" ht="20.2" customHeight="1">
-      <c r="A100" s="12">
+      <c r="A100" s="15">
         <v>98</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="8"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="17"/>
     </row>
     <row r="101" ht="20.2" customHeight="1">
-      <c r="A101" s="12">
+      <c r="A101" s="15">
         <v>99</v>
       </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="8"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="19"/>
+      <c r="D101" s="19"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="19"/>
     </row>
     <row r="102" ht="20.2" customHeight="1">
-      <c r="A102" s="12">
+      <c r="A102" s="15">
         <v>100</v>
       </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="8"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="17"/>
     </row>
     <row r="103" ht="20.2" customHeight="1">
-      <c r="A103" s="12">
+      <c r="A103" s="15">
         <v>101</v>
       </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="8"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="19"/>
     </row>
     <row r="104" ht="20.2" customHeight="1">
-      <c r="A104" s="12">
+      <c r="A104" s="15">
         <v>102</v>
       </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="8"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="17"/>
     </row>
     <row r="105" ht="20.2" customHeight="1">
-      <c r="A105" s="12">
+      <c r="A105" s="15">
         <v>103</v>
       </c>
-      <c r="B105" s="15"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="8"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="19"/>
     </row>
     <row r="106" ht="20.2" customHeight="1">
-      <c r="A106" s="12">
+      <c r="A106" s="15">
         <v>104</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="8"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="17"/>
     </row>
     <row r="107" ht="20.2" customHeight="1">
-      <c r="A107" s="12">
+      <c r="A107" s="15">
         <v>105</v>
       </c>
-      <c r="B107" s="15"/>
-      <c r="C107" s="16"/>
-      <c r="D107" s="16"/>
-      <c r="E107" s="8"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="19"/>
     </row>
     <row r="108" ht="20.2" customHeight="1">
-      <c r="A108" s="12">
+      <c r="A108" s="15">
         <v>106</v>
       </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="8"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="17"/>
     </row>
     <row r="109" ht="20.2" customHeight="1">
-      <c r="A109" s="12">
+      <c r="A109" s="15">
         <v>107</v>
       </c>
-      <c r="B109" s="15"/>
-      <c r="C109" s="16"/>
-      <c r="D109" s="16"/>
-      <c r="E109" s="8"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="19"/>
     </row>
     <row r="110" ht="20.2" customHeight="1">
-      <c r="A110" s="12">
+      <c r="A110" s="15">
         <v>108</v>
       </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="8"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="17"/>
     </row>
     <row r="111" ht="20.2" customHeight="1">
-      <c r="A111" s="12">
+      <c r="A111" s="15">
         <v>109</v>
       </c>
-      <c r="B111" s="15"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="16"/>
-      <c r="E111" s="8"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="19"/>
     </row>
     <row r="112" ht="20.2" customHeight="1">
-      <c r="A112" s="12">
+      <c r="A112" s="15">
         <v>110</v>
       </c>
-      <c r="B112" s="13"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="8"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="17"/>
     </row>
     <row r="113" ht="20.2" customHeight="1">
-      <c r="A113" s="12">
+      <c r="A113" s="15">
         <v>111</v>
       </c>
-      <c r="B113" s="15"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="16"/>
-      <c r="E113" s="8"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="19"/>
     </row>
     <row r="114" ht="20.2" customHeight="1">
-      <c r="A114" s="12">
+      <c r="A114" s="15">
         <v>112</v>
       </c>
-      <c r="B114" s="13"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="8"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="17"/>
     </row>
     <row r="115" ht="20.2" customHeight="1">
-      <c r="A115" s="12">
+      <c r="A115" s="15">
         <v>113</v>
       </c>
-      <c r="B115" s="15"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="8"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="19"/>
     </row>
     <row r="116" ht="20.2" customHeight="1">
-      <c r="A116" s="12">
+      <c r="A116" s="15">
         <v>114</v>
       </c>
-      <c r="B116" s="13"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="8"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="17"/>
     </row>
     <row r="117" ht="20.2" customHeight="1">
-      <c r="A117" s="12">
+      <c r="A117" s="15">
         <v>115</v>
       </c>
-      <c r="B117" s="15"/>
-      <c r="C117" s="16"/>
-      <c r="D117" s="16"/>
-      <c r="E117" s="8"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="19"/>
+      <c r="D117" s="19"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="19"/>
     </row>
     <row r="118" ht="20.2" customHeight="1">
-      <c r="A118" s="12">
+      <c r="A118" s="15">
         <v>116</v>
       </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="8"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="17"/>
     </row>
     <row r="119" ht="20.2" customHeight="1">
-      <c r="A119" s="12">
+      <c r="A119" s="15">
         <v>117</v>
       </c>
-      <c r="B119" s="15"/>
-      <c r="C119" s="16"/>
-      <c r="D119" s="16"/>
-      <c r="E119" s="8"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="19"/>
     </row>
     <row r="120" ht="20.2" customHeight="1">
-      <c r="A120" s="12">
+      <c r="A120" s="15">
         <v>118</v>
       </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="8"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="17"/>
     </row>
     <row r="121" ht="20.2" customHeight="1">
-      <c r="A121" s="12">
+      <c r="A121" s="15">
         <v>119</v>
       </c>
-      <c r="B121" s="15"/>
-      <c r="C121" s="16"/>
-      <c r="D121" s="16"/>
-      <c r="E121" s="8"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="19"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="19"/>
     </row>
     <row r="122" ht="20.2" customHeight="1">
-      <c r="A122" s="12">
+      <c r="A122" s="15">
         <v>120</v>
       </c>
-      <c r="B122" s="13"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="8"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="17"/>
     </row>
     <row r="123" ht="20.2" customHeight="1">
-      <c r="A123" s="12">
+      <c r="A123" s="15">
         <v>121</v>
       </c>
-      <c r="B123" s="15"/>
-      <c r="C123" s="16"/>
-      <c r="D123" s="16"/>
-      <c r="E123" s="8"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="19"/>
     </row>
     <row r="124" ht="20.2" customHeight="1">
-      <c r="A124" s="12">
+      <c r="A124" s="15">
         <v>122</v>
       </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="8"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="17"/>
     </row>
     <row r="125" ht="20.2" customHeight="1">
-      <c r="A125" s="12">
+      <c r="A125" s="15">
         <v>123</v>
       </c>
-      <c r="B125" s="15"/>
-      <c r="C125" s="16"/>
-      <c r="D125" s="16"/>
-      <c r="E125" s="8"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="19"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="19"/>
     </row>
     <row r="126" ht="20.2" customHeight="1">
-      <c r="A126" s="12">
+      <c r="A126" s="15">
         <v>124</v>
       </c>
-      <c r="B126" s="13"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="8"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="17"/>
     </row>
     <row r="127" ht="20.2" customHeight="1">
-      <c r="A127" s="12">
+      <c r="A127" s="15">
         <v>125</v>
       </c>
-      <c r="B127" s="15"/>
-      <c r="C127" s="16"/>
-      <c r="D127" s="16"/>
-      <c r="E127" s="8"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="19"/>
     </row>
     <row r="128" ht="20.2" customHeight="1">
-      <c r="A128" s="12">
+      <c r="A128" s="15">
         <v>126</v>
       </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="8"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="17"/>
     </row>
     <row r="129" ht="20.2" customHeight="1">
-      <c r="A129" s="12">
+      <c r="A129" s="15">
         <v>127</v>
       </c>
-      <c r="B129" s="15"/>
-      <c r="C129" s="16"/>
-      <c r="D129" s="16"/>
-      <c r="E129" s="8"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="19"/>
     </row>
     <row r="130" ht="20.2" customHeight="1">
-      <c r="A130" s="12">
+      <c r="A130" s="15">
         <v>128</v>
       </c>
-      <c r="B130" s="13"/>
-      <c r="C130" s="14"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="8"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="17"/>
     </row>
     <row r="131" ht="20.2" customHeight="1">
-      <c r="A131" s="12">
+      <c r="A131" s="15">
         <v>129</v>
       </c>
-      <c r="B131" s="15"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="8"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="19"/>
     </row>
     <row r="132" ht="20.2" customHeight="1">
-      <c r="A132" s="12">
+      <c r="A132" s="15">
         <v>130</v>
       </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="14"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="8"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="17"/>
     </row>
     <row r="133" ht="20.2" customHeight="1">
-      <c r="A133" s="12">
+      <c r="A133" s="15">
         <v>131</v>
       </c>
-      <c r="B133" s="15"/>
-      <c r="C133" s="16"/>
-      <c r="D133" s="16"/>
-      <c r="E133" s="8"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="19"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="19"/>
     </row>
     <row r="134" ht="20.2" customHeight="1">
-      <c r="A134" s="12">
+      <c r="A134" s="15">
         <v>132</v>
       </c>
-      <c r="B134" s="13"/>
-      <c r="C134" s="14"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="8"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="17"/>
     </row>
     <row r="135" ht="20.2" customHeight="1">
-      <c r="A135" s="12">
+      <c r="A135" s="15">
         <v>133</v>
       </c>
-      <c r="B135" s="15"/>
-      <c r="C135" s="16"/>
-      <c r="D135" s="16"/>
-      <c r="E135" s="8"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="19"/>
     </row>
     <row r="136" ht="20.2" customHeight="1">
-      <c r="A136" s="12">
+      <c r="A136" s="15">
         <v>134</v>
       </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="14"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="8"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="17"/>
     </row>
     <row r="137" ht="20.2" customHeight="1">
-      <c r="A137" s="12">
+      <c r="A137" s="15">
         <v>135</v>
       </c>
-      <c r="B137" s="15"/>
-      <c r="C137" s="16"/>
-      <c r="D137" s="16"/>
-      <c r="E137" s="8"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="19"/>
+      <c r="D137" s="19"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="19"/>
     </row>
     <row r="138" ht="20.2" customHeight="1">
-      <c r="A138" s="12">
+      <c r="A138" s="15">
         <v>136</v>
       </c>
-      <c r="B138" s="13"/>
-      <c r="C138" s="14"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="8"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="17"/>
     </row>
     <row r="139" ht="20.2" customHeight="1">
-      <c r="A139" s="12">
+      <c r="A139" s="15">
         <v>137</v>
       </c>
-      <c r="B139" s="15"/>
-      <c r="C139" s="16"/>
-      <c r="D139" s="16"/>
-      <c r="E139" s="8"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="19"/>
     </row>
     <row r="140" ht="20.2" customHeight="1">
-      <c r="A140" s="12">
+      <c r="A140" s="15">
         <v>138</v>
       </c>
-      <c r="B140" s="13"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="8"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="17"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="17"/>
     </row>
     <row r="141" ht="20.2" customHeight="1">
-      <c r="A141" s="12">
+      <c r="A141" s="15">
         <v>139</v>
       </c>
-      <c r="B141" s="15"/>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-      <c r="E141" s="8"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="19"/>
+      <c r="D141" s="19"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="19"/>
     </row>
     <row r="142" ht="20.2" customHeight="1">
-      <c r="A142" s="12">
+      <c r="A142" s="15">
         <v>140</v>
       </c>
-      <c r="B142" s="13"/>
-      <c r="C142" s="14"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="8"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="17"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="17"/>
     </row>
     <row r="143" ht="20.2" customHeight="1">
-      <c r="A143" s="12">
+      <c r="A143" s="15">
         <v>141</v>
       </c>
-      <c r="B143" s="15"/>
-      <c r="C143" s="16"/>
-      <c r="D143" s="16"/>
-      <c r="E143" s="8"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="19"/>
     </row>
     <row r="144" ht="20.2" customHeight="1">
-      <c r="A144" s="12">
+      <c r="A144" s="15">
         <v>142</v>
       </c>
-      <c r="B144" s="13"/>
-      <c r="C144" s="14"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="8"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="17"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="17"/>
     </row>
     <row r="145" ht="20.2" customHeight="1">
-      <c r="A145" s="12">
+      <c r="A145" s="15">
         <v>143</v>
       </c>
-      <c r="B145" s="15"/>
-      <c r="C145" s="16"/>
-      <c r="D145" s="16"/>
-      <c r="E145" s="8"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="19"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="19"/>
     </row>
     <row r="146" ht="20.2" customHeight="1">
-      <c r="A146" s="12">
+      <c r="A146" s="15">
         <v>144</v>
       </c>
-      <c r="B146" s="13"/>
-      <c r="C146" s="14"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="8"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="17"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="17"/>
     </row>
     <row r="147" ht="20.2" customHeight="1">
-      <c r="A147" s="12">
+      <c r="A147" s="15">
         <v>145</v>
       </c>
-      <c r="B147" s="15"/>
-      <c r="C147" s="16"/>
-      <c r="D147" s="16"/>
-      <c r="E147" s="8"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="19"/>
     </row>
     <row r="148" ht="20.2" customHeight="1">
-      <c r="A148" s="12">
+      <c r="A148" s="15">
         <v>146</v>
       </c>
-      <c r="B148" s="13"/>
-      <c r="C148" s="14"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="8"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="17"/>
     </row>
     <row r="149" ht="20.2" customHeight="1">
-      <c r="A149" s="12">
+      <c r="A149" s="15">
         <v>147</v>
       </c>
-      <c r="B149" s="15"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="8"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="19"/>
+      <c r="D149" s="19"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="19"/>
     </row>
     <row r="150" ht="20.2" customHeight="1">
-      <c r="A150" s="12">
+      <c r="A150" s="15">
         <v>148</v>
       </c>
-      <c r="B150" s="13"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="8"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="17"/>
     </row>
     <row r="151" ht="20.2" customHeight="1">
-      <c r="A151" s="12">
+      <c r="A151" s="15">
         <v>149</v>
       </c>
-      <c r="B151" s="15"/>
-      <c r="C151" s="16"/>
-      <c r="D151" s="16"/>
-      <c r="E151" s="8"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="19"/>
+      <c r="D151" s="19"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="19"/>
     </row>
     <row r="152" ht="20.2" customHeight="1">
-      <c r="A152" s="12">
+      <c r="A152" s="15">
         <v>150</v>
       </c>
-      <c r="B152" s="13"/>
-      <c r="C152" s="14"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="8"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="17"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="17"/>
     </row>
     <row r="153" ht="20.2" customHeight="1">
-      <c r="A153" s="12">
+      <c r="A153" s="15">
         <v>151</v>
       </c>
-      <c r="B153" s="15"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-      <c r="E153" s="8"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="19"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="19"/>
     </row>
     <row r="154" ht="20.2" customHeight="1">
-      <c r="A154" s="12">
+      <c r="A154" s="15">
         <v>152</v>
       </c>
-      <c r="B154" s="13"/>
-      <c r="C154" s="14"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="8"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="17"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="17"/>
     </row>
     <row r="155" ht="20.2" customHeight="1">
-      <c r="A155" s="12">
+      <c r="A155" s="15">
         <v>153</v>
       </c>
-      <c r="B155" s="15"/>
-      <c r="C155" s="16"/>
-      <c r="D155" s="16"/>
-      <c r="E155" s="8"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="19"/>
+      <c r="D155" s="19"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="19"/>
     </row>
     <row r="156" ht="20.2" customHeight="1">
-      <c r="A156" s="12">
+      <c r="A156" s="15">
         <v>154</v>
       </c>
-      <c r="B156" s="13"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="8"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="17"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="17"/>
     </row>
     <row r="157" ht="20.2" customHeight="1">
-      <c r="A157" s="12">
+      <c r="A157" s="15">
         <v>155</v>
       </c>
-      <c r="B157" s="15"/>
-      <c r="C157" s="16"/>
-      <c r="D157" s="16"/>
-      <c r="E157" s="8"/>
+      <c r="B157" s="18"/>
+      <c r="C157" s="19"/>
+      <c r="D157" s="19"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="19"/>
     </row>
     <row r="158" ht="20.2" customHeight="1">
-      <c r="A158" s="12">
+      <c r="A158" s="15">
         <v>156</v>
       </c>
-      <c r="B158" s="13"/>
-      <c r="C158" s="14"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="8"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="17"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="17"/>
     </row>
     <row r="159" ht="20.2" customHeight="1">
-      <c r="A159" s="12">
+      <c r="A159" s="15">
         <v>157</v>
       </c>
-      <c r="B159" s="15"/>
-      <c r="C159" s="16"/>
-      <c r="D159" s="16"/>
-      <c r="E159" s="8"/>
+      <c r="B159" s="18"/>
+      <c r="C159" s="19"/>
+      <c r="D159" s="19"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="19"/>
     </row>
     <row r="160" ht="20.2" customHeight="1">
-      <c r="A160" s="12">
+      <c r="A160" s="15">
         <v>158</v>
       </c>
-      <c r="B160" s="13"/>
-      <c r="C160" s="14"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="8"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="17"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="17"/>
     </row>
     <row r="161" ht="20.2" customHeight="1">
-      <c r="A161" s="12">
+      <c r="A161" s="15">
         <v>159</v>
       </c>
-      <c r="B161" s="15"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="8"/>
+      <c r="B161" s="18"/>
+      <c r="C161" s="19"/>
+      <c r="D161" s="19"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="19"/>
     </row>
     <row r="162" ht="20.2" customHeight="1">
-      <c r="A162" s="12">
+      <c r="A162" s="15">
         <v>160</v>
       </c>
-      <c r="B162" s="13"/>
-      <c r="C162" s="14"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="8"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="17"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="17"/>
     </row>
     <row r="163" ht="20.2" customHeight="1">
-      <c r="A163" s="12">
+      <c r="A163" s="15">
         <v>161</v>
       </c>
-      <c r="B163" s="15"/>
-      <c r="C163" s="16"/>
-      <c r="D163" s="16"/>
-      <c r="E163" s="8"/>
+      <c r="B163" s="18"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="19"/>
     </row>
     <row r="164" ht="20.2" customHeight="1">
-      <c r="A164" s="12">
+      <c r="A164" s="15">
         <v>162</v>
       </c>
-      <c r="B164" s="13"/>
-      <c r="C164" s="14"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="8"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="17"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="17"/>
     </row>
     <row r="165" ht="20.2" customHeight="1">
-      <c r="A165" s="12">
+      <c r="A165" s="15">
         <v>163</v>
       </c>
-      <c r="B165" s="15"/>
-      <c r="C165" s="16"/>
-      <c r="D165" s="16"/>
-      <c r="E165" s="8"/>
+      <c r="B165" s="18"/>
+      <c r="C165" s="19"/>
+      <c r="D165" s="19"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="19"/>
     </row>
     <row r="166" ht="20.2" customHeight="1">
-      <c r="A166" s="12">
+      <c r="A166" s="15">
         <v>164</v>
       </c>
-      <c r="B166" s="13"/>
-      <c r="C166" s="14"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="8"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="17"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="17"/>
     </row>
     <row r="167" ht="20.2" customHeight="1">
-      <c r="A167" s="12">
+      <c r="A167" s="15">
         <v>165</v>
       </c>
-      <c r="B167" s="15"/>
-      <c r="C167" s="16"/>
-      <c r="D167" s="16"/>
-      <c r="E167" s="8"/>
+      <c r="B167" s="18"/>
+      <c r="C167" s="19"/>
+      <c r="D167" s="19"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="19"/>
     </row>
     <row r="168" ht="20.2" customHeight="1">
-      <c r="A168" s="12">
+      <c r="A168" s="15">
         <v>166</v>
       </c>
-      <c r="B168" s="13"/>
-      <c r="C168" s="14"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="8"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="17"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="17"/>
     </row>
     <row r="169" ht="20.2" customHeight="1">
-      <c r="A169" s="12">
+      <c r="A169" s="15">
         <v>167</v>
       </c>
-      <c r="B169" s="15"/>
-      <c r="C169" s="16"/>
-      <c r="D169" s="16"/>
-      <c r="E169" s="8"/>
+      <c r="B169" s="18"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="19"/>
     </row>
     <row r="170" ht="20.2" customHeight="1">
-      <c r="A170" s="12">
+      <c r="A170" s="15">
         <v>168</v>
       </c>
-      <c r="B170" s="13"/>
-      <c r="C170" s="14"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="8"/>
+      <c r="B170" s="16"/>
+      <c r="C170" s="17"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="17"/>
     </row>
     <row r="171" ht="20.2" customHeight="1">
-      <c r="A171" s="12">
+      <c r="A171" s="15">
         <v>169</v>
       </c>
-      <c r="B171" s="15"/>
-      <c r="C171" s="16"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="8"/>
+      <c r="B171" s="18"/>
+      <c r="C171" s="19"/>
+      <c r="D171" s="19"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="19"/>
     </row>
     <row r="172" ht="20.2" customHeight="1">
-      <c r="A172" s="12">
+      <c r="A172" s="15">
         <v>170</v>
       </c>
-      <c r="B172" s="13"/>
-      <c r="C172" s="14"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="8"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="17"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="17"/>
     </row>
     <row r="173" ht="20.2" customHeight="1">
-      <c r="A173" s="12">
+      <c r="A173" s="15">
         <v>171</v>
       </c>
-      <c r="B173" s="15"/>
-      <c r="C173" s="16"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="8"/>
+      <c r="B173" s="18"/>
+      <c r="C173" s="19"/>
+      <c r="D173" s="19"/>
+      <c r="E173" s="14"/>
+      <c r="F173" s="19"/>
     </row>
     <row r="174" ht="20.2" customHeight="1">
-      <c r="A174" s="12">
+      <c r="A174" s="15">
         <v>172</v>
       </c>
-      <c r="B174" s="13"/>
-      <c r="C174" s="14"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="8"/>
+      <c r="B174" s="16"/>
+      <c r="C174" s="17"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="17"/>
     </row>
     <row r="175" ht="20.2" customHeight="1">
-      <c r="A175" s="12">
+      <c r="A175" s="15">
         <v>173</v>
       </c>
-      <c r="B175" s="15"/>
-      <c r="C175" s="16"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="8"/>
+      <c r="B175" s="18"/>
+      <c r="C175" s="19"/>
+      <c r="D175" s="19"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="19"/>
     </row>
     <row r="176" ht="20.2" customHeight="1">
-      <c r="A176" s="12">
+      <c r="A176" s="15">
         <v>174</v>
       </c>
-      <c r="B176" s="13"/>
-      <c r="C176" s="14"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="8"/>
+      <c r="B176" s="16"/>
+      <c r="C176" s="17"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="17"/>
     </row>
     <row r="177" ht="20.2" customHeight="1">
-      <c r="A177" s="12">
+      <c r="A177" s="15">
         <v>175</v>
       </c>
-      <c r="B177" s="15"/>
-      <c r="C177" s="16"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="8"/>
+      <c r="B177" s="18"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="19"/>
     </row>
     <row r="178" ht="20.2" customHeight="1">
-      <c r="A178" s="12">
+      <c r="A178" s="15">
         <v>176</v>
       </c>
-      <c r="B178" s="13"/>
-      <c r="C178" s="14"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="8"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="17"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="17"/>
     </row>
     <row r="179" ht="20.2" customHeight="1">
-      <c r="A179" s="12">
+      <c r="A179" s="15">
         <v>177</v>
       </c>
-      <c r="B179" s="15"/>
-      <c r="C179" s="16"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="8"/>
+      <c r="B179" s="18"/>
+      <c r="C179" s="19"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="19"/>
     </row>
     <row r="180" ht="20.2" customHeight="1">
-      <c r="A180" s="12">
+      <c r="A180" s="15">
         <v>178</v>
       </c>
-      <c r="B180" s="13"/>
-      <c r="C180" s="14"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="8"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="17"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="17"/>
     </row>
     <row r="181" ht="20.2" customHeight="1">
-      <c r="A181" s="12">
+      <c r="A181" s="15">
         <v>179</v>
       </c>
-      <c r="B181" s="15"/>
-      <c r="C181" s="16"/>
-      <c r="D181" s="16"/>
-      <c r="E181" s="8"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="19"/>
+      <c r="D181" s="19"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="19"/>
     </row>
     <row r="182" ht="20.2" customHeight="1">
-      <c r="A182" s="12">
+      <c r="A182" s="15">
         <v>180</v>
       </c>
-      <c r="B182" s="13"/>
-      <c r="C182" s="14"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="8"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="17"/>
     </row>
     <row r="183" ht="20.2" customHeight="1">
-      <c r="A183" s="12">
+      <c r="A183" s="15">
         <v>181</v>
       </c>
-      <c r="B183" s="15"/>
-      <c r="C183" s="16"/>
-      <c r="D183" s="16"/>
-      <c r="E183" s="8"/>
+      <c r="B183" s="18"/>
+      <c r="C183" s="19"/>
+      <c r="D183" s="19"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="19"/>
     </row>
     <row r="184" ht="20.2" customHeight="1">
-      <c r="A184" s="12">
+      <c r="A184" s="15">
         <v>182</v>
       </c>
-      <c r="B184" s="13"/>
-      <c r="C184" s="14"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="8"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="17"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="17"/>
     </row>
     <row r="185" ht="20.2" customHeight="1">
-      <c r="A185" s="12">
+      <c r="A185" s="15">
         <v>183</v>
       </c>
-      <c r="B185" s="15"/>
-      <c r="C185" s="16"/>
-      <c r="D185" s="16"/>
-      <c r="E185" s="8"/>
+      <c r="B185" s="18"/>
+      <c r="C185" s="19"/>
+      <c r="D185" s="19"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="19"/>
     </row>
     <row r="186" ht="20.2" customHeight="1">
-      <c r="A186" s="12">
+      <c r="A186" s="15">
         <v>184</v>
       </c>
-      <c r="B186" s="13"/>
-      <c r="C186" s="14"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="8"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="17"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="17"/>
     </row>
     <row r="187" ht="20.2" customHeight="1">
-      <c r="A187" s="12">
+      <c r="A187" s="15">
         <v>185</v>
       </c>
-      <c r="B187" s="15"/>
-      <c r="C187" s="16"/>
-      <c r="D187" s="16"/>
-      <c r="E187" s="8"/>
+      <c r="B187" s="18"/>
+      <c r="C187" s="19"/>
+      <c r="D187" s="19"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="19"/>
     </row>
     <row r="188" ht="20.2" customHeight="1">
-      <c r="A188" s="12">
+      <c r="A188" s="15">
         <v>186</v>
       </c>
-      <c r="B188" s="13"/>
-      <c r="C188" s="14"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="8"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="17"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="17"/>
     </row>
     <row r="189" ht="20.2" customHeight="1">
-      <c r="A189" s="12">
+      <c r="A189" s="15">
         <v>187</v>
       </c>
-      <c r="B189" s="15"/>
-      <c r="C189" s="16"/>
-      <c r="D189" s="16"/>
-      <c r="E189" s="8"/>
+      <c r="B189" s="18"/>
+      <c r="C189" s="19"/>
+      <c r="D189" s="19"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="19"/>
     </row>
     <row r="190" ht="20.2" customHeight="1">
-      <c r="A190" s="12">
+      <c r="A190" s="15">
         <v>188</v>
       </c>
-      <c r="B190" s="13"/>
-      <c r="C190" s="14"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="8"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="17"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="17"/>
     </row>
     <row r="191" ht="20.2" customHeight="1">
-      <c r="A191" s="12">
+      <c r="A191" s="15">
         <v>189</v>
       </c>
-      <c r="B191" s="15"/>
-      <c r="C191" s="16"/>
-      <c r="D191" s="16"/>
-      <c r="E191" s="8"/>
+      <c r="B191" s="18"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="19"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="19"/>
     </row>
     <row r="192" ht="20.2" customHeight="1">
-      <c r="A192" s="12">
+      <c r="A192" s="15">
         <v>190</v>
       </c>
-      <c r="B192" s="13"/>
-      <c r="C192" s="14"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="8"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="17"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="17"/>
     </row>
     <row r="193" ht="20.2" customHeight="1">
-      <c r="A193" s="12">
+      <c r="A193" s="15">
         <v>191</v>
       </c>
-      <c r="B193" s="15"/>
-      <c r="C193" s="16"/>
-      <c r="D193" s="16"/>
-      <c r="E193" s="8"/>
+      <c r="B193" s="18"/>
+      <c r="C193" s="19"/>
+      <c r="D193" s="19"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="19"/>
     </row>
     <row r="194" ht="20.2" customHeight="1">
-      <c r="A194" s="12">
+      <c r="A194" s="15">
         <v>192</v>
       </c>
-      <c r="B194" s="13"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
-      <c r="E194" s="17"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="17"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
